--- a/covidfallecidosnuevos.xlsx
+++ b/covidfallecidosnuevos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/Proyecto Python/Streamlit/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guille/Desktop/enciclopedia-app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA094F78-18BD-6745-9960-FEBAF5C9AD0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A238AB86-801D-014D-BEB0-1C11294FA6FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="13960" xr2:uid="{D0C13E01-43E2-DE4F-82E2-9E2A9731695C}"/>
   </bookViews>
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
-    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -171,7 +170,7 @@
       <sheetName val="covidfallecidosacumulados"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="B2">
             <v>0</v>
@@ -408,6 +407,36 @@
             <v>1334</v>
           </cell>
           <cell r="CB2">
+            <v>1404</v>
+          </cell>
+          <cell r="CC2">
+            <v>1404</v>
+          </cell>
+          <cell r="CD2">
+            <v>1404</v>
+          </cell>
+          <cell r="CE2">
+            <v>1404</v>
+          </cell>
+          <cell r="CF2">
+            <v>1404</v>
+          </cell>
+          <cell r="CG2">
+            <v>1404</v>
+          </cell>
+          <cell r="CH2">
+            <v>1404</v>
+          </cell>
+          <cell r="CI2">
+            <v>1404</v>
+          </cell>
+          <cell r="CJ2">
+            <v>1404</v>
+          </cell>
+          <cell r="CK2">
+            <v>1404</v>
+          </cell>
+          <cell r="CL2">
             <v>1404</v>
           </cell>
         </row>
@@ -649,6 +678,36 @@
           <cell r="CB3">
             <v>826</v>
           </cell>
+          <cell r="CC3">
+            <v>826</v>
+          </cell>
+          <cell r="CD3">
+            <v>826</v>
+          </cell>
+          <cell r="CE3">
+            <v>826</v>
+          </cell>
+          <cell r="CF3">
+            <v>826</v>
+          </cell>
+          <cell r="CG3">
+            <v>826</v>
+          </cell>
+          <cell r="CH3">
+            <v>826</v>
+          </cell>
+          <cell r="CI3">
+            <v>826</v>
+          </cell>
+          <cell r="CJ3">
+            <v>826</v>
+          </cell>
+          <cell r="CK3">
+            <v>826</v>
+          </cell>
+          <cell r="CL3">
+            <v>826</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="B4">
@@ -888,6 +947,36 @@
           <cell r="CB4">
             <v>202</v>
           </cell>
+          <cell r="CC4">
+            <v>202</v>
+          </cell>
+          <cell r="CD4">
+            <v>202</v>
+          </cell>
+          <cell r="CE4">
+            <v>202</v>
+          </cell>
+          <cell r="CF4">
+            <v>202</v>
+          </cell>
+          <cell r="CG4">
+            <v>202</v>
+          </cell>
+          <cell r="CH4">
+            <v>202</v>
+          </cell>
+          <cell r="CI4">
+            <v>202</v>
+          </cell>
+          <cell r="CJ4">
+            <v>202</v>
+          </cell>
+          <cell r="CK4">
+            <v>202</v>
+          </cell>
+          <cell r="CL4">
+            <v>202</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="B5">
@@ -1127,6 +1216,36 @@
           <cell r="CB5">
             <v>1922</v>
           </cell>
+          <cell r="CC5">
+            <v>1922</v>
+          </cell>
+          <cell r="CD5">
+            <v>1922</v>
+          </cell>
+          <cell r="CE5">
+            <v>1922</v>
+          </cell>
+          <cell r="CF5">
+            <v>1923</v>
+          </cell>
+          <cell r="CG5">
+            <v>1924</v>
+          </cell>
+          <cell r="CH5">
+            <v>1924</v>
+          </cell>
+          <cell r="CI5">
+            <v>1924</v>
+          </cell>
+          <cell r="CJ5">
+            <v>1925</v>
+          </cell>
+          <cell r="CK5">
+            <v>1928</v>
+          </cell>
+          <cell r="CL5">
+            <v>1928</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="B6">
@@ -1366,6 +1485,36 @@
           <cell r="CB6">
             <v>2945</v>
           </cell>
+          <cell r="CC6">
+            <v>2945</v>
+          </cell>
+          <cell r="CD6">
+            <v>2945</v>
+          </cell>
+          <cell r="CE6">
+            <v>2945</v>
+          </cell>
+          <cell r="CF6">
+            <v>2945</v>
+          </cell>
+          <cell r="CG6">
+            <v>2945</v>
+          </cell>
+          <cell r="CH6">
+            <v>2945</v>
+          </cell>
+          <cell r="CI6">
+            <v>2945</v>
+          </cell>
+          <cell r="CJ6">
+            <v>2945</v>
+          </cell>
+          <cell r="CK6">
+            <v>2945</v>
+          </cell>
+          <cell r="CL6">
+            <v>2945</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="B7">
@@ -1605,6 +1754,36 @@
           <cell r="CB7">
             <v>5583</v>
           </cell>
+          <cell r="CC7">
+            <v>5583</v>
+          </cell>
+          <cell r="CD7">
+            <v>5584</v>
+          </cell>
+          <cell r="CE7">
+            <v>5584</v>
+          </cell>
+          <cell r="CF7">
+            <v>5587</v>
+          </cell>
+          <cell r="CG7">
+            <v>5587</v>
+          </cell>
+          <cell r="CH7">
+            <v>5587</v>
+          </cell>
+          <cell r="CI7">
+            <v>5587</v>
+          </cell>
+          <cell r="CJ7">
+            <v>5587</v>
+          </cell>
+          <cell r="CK7">
+            <v>5587</v>
+          </cell>
+          <cell r="CL7">
+            <v>5587</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="B8">
@@ -1844,6 +2023,36 @@
           <cell r="CB8">
             <v>5</v>
           </cell>
+          <cell r="CC8">
+            <v>4</v>
+          </cell>
+          <cell r="CD8">
+            <v>4</v>
+          </cell>
+          <cell r="CE8">
+            <v>4</v>
+          </cell>
+          <cell r="CF8">
+            <v>4</v>
+          </cell>
+          <cell r="CG8">
+            <v>4</v>
+          </cell>
+          <cell r="CH8">
+            <v>4</v>
+          </cell>
+          <cell r="CI8">
+            <v>4</v>
+          </cell>
+          <cell r="CJ8">
+            <v>4</v>
+          </cell>
+          <cell r="CK8">
+            <v>4</v>
+          </cell>
+          <cell r="CL8">
+            <v>4</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="B9">
@@ -2083,6 +2292,36 @@
           <cell r="CB9">
             <v>8691</v>
           </cell>
+          <cell r="CC9">
+            <v>8691</v>
+          </cell>
+          <cell r="CD9">
+            <v>8691</v>
+          </cell>
+          <cell r="CE9">
+            <v>8691</v>
+          </cell>
+          <cell r="CF9">
+            <v>8691</v>
+          </cell>
+          <cell r="CG9">
+            <v>8691</v>
+          </cell>
+          <cell r="CH9">
+            <v>8691</v>
+          </cell>
+          <cell r="CI9">
+            <v>8691</v>
+          </cell>
+          <cell r="CJ9">
+            <v>8691</v>
+          </cell>
+          <cell r="CK9">
+            <v>8691</v>
+          </cell>
+          <cell r="CL9">
+            <v>8691</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="B10">
@@ -2322,6 +2561,36 @@
           <cell r="CB10">
             <v>1332</v>
           </cell>
+          <cell r="CC10">
+            <v>1332</v>
+          </cell>
+          <cell r="CD10">
+            <v>1332</v>
+          </cell>
+          <cell r="CE10">
+            <v>1334</v>
+          </cell>
+          <cell r="CF10">
+            <v>1332</v>
+          </cell>
+          <cell r="CG10">
+            <v>1332</v>
+          </cell>
+          <cell r="CH10">
+            <v>1332</v>
+          </cell>
+          <cell r="CI10">
+            <v>1332</v>
+          </cell>
+          <cell r="CJ10">
+            <v>1332</v>
+          </cell>
+          <cell r="CK10">
+            <v>1332</v>
+          </cell>
+          <cell r="CL10">
+            <v>1332</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="B11">
@@ -2561,6 +2830,36 @@
           <cell r="CB11">
             <v>507</v>
           </cell>
+          <cell r="CC11">
+            <v>507</v>
+          </cell>
+          <cell r="CD11">
+            <v>507</v>
+          </cell>
+          <cell r="CE11">
+            <v>507</v>
+          </cell>
+          <cell r="CF11">
+            <v>508</v>
+          </cell>
+          <cell r="CG11">
+            <v>508</v>
+          </cell>
+          <cell r="CH11">
+            <v>508</v>
+          </cell>
+          <cell r="CI11">
+            <v>508</v>
+          </cell>
+          <cell r="CJ11">
+            <v>508</v>
+          </cell>
+          <cell r="CK11">
+            <v>508</v>
+          </cell>
+          <cell r="CL11">
+            <v>508</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="B12">
@@ -2800,6 +3099,36 @@
           <cell r="CB12">
             <v>607</v>
           </cell>
+          <cell r="CC12">
+            <v>608</v>
+          </cell>
+          <cell r="CD12">
+            <v>608</v>
+          </cell>
+          <cell r="CE12">
+            <v>608</v>
+          </cell>
+          <cell r="CF12">
+            <v>609</v>
+          </cell>
+          <cell r="CG12">
+            <v>609</v>
+          </cell>
+          <cell r="CH12">
+            <v>609</v>
+          </cell>
+          <cell r="CI12">
+            <v>609</v>
+          </cell>
+          <cell r="CJ12">
+            <v>609</v>
+          </cell>
+          <cell r="CK12">
+            <v>609</v>
+          </cell>
+          <cell r="CL12">
+            <v>609</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="B13">
@@ -3039,6 +3368,36 @@
           <cell r="CB13">
             <v>209</v>
           </cell>
+          <cell r="CC13">
+            <v>209</v>
+          </cell>
+          <cell r="CD13">
+            <v>209</v>
+          </cell>
+          <cell r="CE13">
+            <v>209</v>
+          </cell>
+          <cell r="CF13">
+            <v>209</v>
+          </cell>
+          <cell r="CG13">
+            <v>209</v>
+          </cell>
+          <cell r="CH13">
+            <v>209</v>
+          </cell>
+          <cell r="CI13">
+            <v>209</v>
+          </cell>
+          <cell r="CJ13">
+            <v>209</v>
+          </cell>
+          <cell r="CK13">
+            <v>209</v>
+          </cell>
+          <cell r="CL13">
+            <v>209</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="B14">
@@ -3278,6 +3637,36 @@
           <cell r="CB14">
             <v>150</v>
           </cell>
+          <cell r="CC14">
+            <v>151</v>
+          </cell>
+          <cell r="CD14">
+            <v>151</v>
+          </cell>
+          <cell r="CE14">
+            <v>151</v>
+          </cell>
+          <cell r="CF14">
+            <v>151</v>
+          </cell>
+          <cell r="CG14">
+            <v>151</v>
+          </cell>
+          <cell r="CH14">
+            <v>151</v>
+          </cell>
+          <cell r="CI14">
+            <v>151</v>
+          </cell>
+          <cell r="CJ14">
+            <v>151</v>
+          </cell>
+          <cell r="CK14">
+            <v>151</v>
+          </cell>
+          <cell r="CL14">
+            <v>151</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="B15">
@@ -3517,6 +3906,36 @@
           <cell r="CB15">
             <v>360</v>
           </cell>
+          <cell r="CC15">
+            <v>360</v>
+          </cell>
+          <cell r="CD15">
+            <v>360</v>
+          </cell>
+          <cell r="CE15">
+            <v>360</v>
+          </cell>
+          <cell r="CF15">
+            <v>360</v>
+          </cell>
+          <cell r="CG15">
+            <v>361</v>
+          </cell>
+          <cell r="CH15">
+            <v>361</v>
+          </cell>
+          <cell r="CI15">
+            <v>361</v>
+          </cell>
+          <cell r="CJ15">
+            <v>361</v>
+          </cell>
+          <cell r="CK15">
+            <v>362</v>
+          </cell>
+          <cell r="CL15">
+            <v>362</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="B16">
@@ -3756,6 +4175,36 @@
           <cell r="CB16">
             <v>2</v>
           </cell>
+          <cell r="CC16">
+            <v>2</v>
+          </cell>
+          <cell r="CD16">
+            <v>2</v>
+          </cell>
+          <cell r="CE16">
+            <v>2</v>
+          </cell>
+          <cell r="CF16">
+            <v>2</v>
+          </cell>
+          <cell r="CG16">
+            <v>2</v>
+          </cell>
+          <cell r="CH16">
+            <v>2</v>
+          </cell>
+          <cell r="CI16">
+            <v>2</v>
+          </cell>
+          <cell r="CJ16">
+            <v>2</v>
+          </cell>
+          <cell r="CK16">
+            <v>2</v>
+          </cell>
+          <cell r="CL16">
+            <v>2</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="B17">
@@ -3995,6 +4444,36 @@
           <cell r="CB17">
             <v>490</v>
           </cell>
+          <cell r="CC17">
+            <v>490</v>
+          </cell>
+          <cell r="CD17">
+            <v>490</v>
+          </cell>
+          <cell r="CE17">
+            <v>490</v>
+          </cell>
+          <cell r="CF17">
+            <v>490</v>
+          </cell>
+          <cell r="CG17">
+            <v>490</v>
+          </cell>
+          <cell r="CH17">
+            <v>490</v>
+          </cell>
+          <cell r="CI17">
+            <v>490</v>
+          </cell>
+          <cell r="CJ17">
+            <v>490</v>
+          </cell>
+          <cell r="CK17">
+            <v>490</v>
+          </cell>
+          <cell r="CL17">
+            <v>490</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="B18">
@@ -4234,6 +4713,36 @@
           <cell r="CB18">
             <v>1424</v>
           </cell>
+          <cell r="CC18">
+            <v>1424</v>
+          </cell>
+          <cell r="CD18">
+            <v>1424</v>
+          </cell>
+          <cell r="CE18">
+            <v>1424</v>
+          </cell>
+          <cell r="CF18">
+            <v>1424</v>
+          </cell>
+          <cell r="CG18">
+            <v>1424</v>
+          </cell>
+          <cell r="CH18">
+            <v>1424</v>
+          </cell>
+          <cell r="CI18">
+            <v>1424</v>
+          </cell>
+          <cell r="CJ18">
+            <v>1424</v>
+          </cell>
+          <cell r="CK18">
+            <v>1424</v>
+          </cell>
+          <cell r="CL18">
+            <v>1424</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="B19">
@@ -4473,6 +4982,36 @@
           <cell r="CB19">
             <v>310</v>
           </cell>
+          <cell r="CC19">
+            <v>310</v>
+          </cell>
+          <cell r="CD19">
+            <v>310</v>
+          </cell>
+          <cell r="CE19">
+            <v>310</v>
+          </cell>
+          <cell r="CF19">
+            <v>310</v>
+          </cell>
+          <cell r="CG19">
+            <v>310</v>
+          </cell>
+          <cell r="CH19">
+            <v>310</v>
+          </cell>
+          <cell r="CI19">
+            <v>310</v>
+          </cell>
+          <cell r="CJ19">
+            <v>310</v>
+          </cell>
+          <cell r="CK19">
+            <v>311</v>
+          </cell>
+          <cell r="CL19">
+            <v>312</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="B20">
@@ -4712,439 +5251,6 @@
           <cell r="CB20">
             <v>148</v>
           </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="CB2">
-            <v>1404</v>
-          </cell>
-          <cell r="CC2">
-            <v>1404</v>
-          </cell>
-          <cell r="CD2">
-            <v>1404</v>
-          </cell>
-          <cell r="CE2">
-            <v>1404</v>
-          </cell>
-          <cell r="CF2">
-            <v>1404</v>
-          </cell>
-          <cell r="CG2">
-            <v>1404</v>
-          </cell>
-          <cell r="CH2">
-            <v>1404</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="CB3">
-            <v>826</v>
-          </cell>
-          <cell r="CC3">
-            <v>826</v>
-          </cell>
-          <cell r="CD3">
-            <v>826</v>
-          </cell>
-          <cell r="CE3">
-            <v>826</v>
-          </cell>
-          <cell r="CF3">
-            <v>826</v>
-          </cell>
-          <cell r="CG3">
-            <v>826</v>
-          </cell>
-          <cell r="CH3">
-            <v>826</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="CB4">
-            <v>202</v>
-          </cell>
-          <cell r="CC4">
-            <v>202</v>
-          </cell>
-          <cell r="CD4">
-            <v>202</v>
-          </cell>
-          <cell r="CE4">
-            <v>202</v>
-          </cell>
-          <cell r="CF4">
-            <v>202</v>
-          </cell>
-          <cell r="CG4">
-            <v>202</v>
-          </cell>
-          <cell r="CH4">
-            <v>202</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="CB5">
-            <v>1922</v>
-          </cell>
-          <cell r="CC5">
-            <v>1922</v>
-          </cell>
-          <cell r="CD5">
-            <v>1922</v>
-          </cell>
-          <cell r="CE5">
-            <v>1922</v>
-          </cell>
-          <cell r="CF5">
-            <v>1923</v>
-          </cell>
-          <cell r="CG5">
-            <v>1924</v>
-          </cell>
-          <cell r="CH5">
-            <v>1924</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="CB6">
-            <v>2945</v>
-          </cell>
-          <cell r="CC6">
-            <v>2945</v>
-          </cell>
-          <cell r="CD6">
-            <v>2945</v>
-          </cell>
-          <cell r="CE6">
-            <v>2945</v>
-          </cell>
-          <cell r="CF6">
-            <v>2945</v>
-          </cell>
-          <cell r="CG6">
-            <v>2945</v>
-          </cell>
-          <cell r="CH6">
-            <v>2945</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="CB7">
-            <v>5583</v>
-          </cell>
-          <cell r="CC7">
-            <v>5583</v>
-          </cell>
-          <cell r="CD7">
-            <v>5584</v>
-          </cell>
-          <cell r="CE7">
-            <v>5584</v>
-          </cell>
-          <cell r="CF7">
-            <v>5587</v>
-          </cell>
-          <cell r="CG7">
-            <v>5587</v>
-          </cell>
-          <cell r="CH7">
-            <v>5587</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="CB8">
-            <v>5</v>
-          </cell>
-          <cell r="CC8">
-            <v>4</v>
-          </cell>
-          <cell r="CD8">
-            <v>4</v>
-          </cell>
-          <cell r="CE8">
-            <v>4</v>
-          </cell>
-          <cell r="CF8">
-            <v>4</v>
-          </cell>
-          <cell r="CG8">
-            <v>4</v>
-          </cell>
-          <cell r="CH8">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="CB9">
-            <v>8691</v>
-          </cell>
-          <cell r="CC9">
-            <v>8691</v>
-          </cell>
-          <cell r="CD9">
-            <v>8691</v>
-          </cell>
-          <cell r="CE9">
-            <v>8691</v>
-          </cell>
-          <cell r="CF9">
-            <v>8691</v>
-          </cell>
-          <cell r="CG9">
-            <v>8691</v>
-          </cell>
-          <cell r="CH9">
-            <v>8691</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="CB10">
-            <v>1332</v>
-          </cell>
-          <cell r="CC10">
-            <v>1332</v>
-          </cell>
-          <cell r="CD10">
-            <v>1332</v>
-          </cell>
-          <cell r="CE10">
-            <v>1334</v>
-          </cell>
-          <cell r="CF10">
-            <v>1332</v>
-          </cell>
-          <cell r="CG10">
-            <v>1332</v>
-          </cell>
-          <cell r="CH10">
-            <v>1332</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="CB11">
-            <v>507</v>
-          </cell>
-          <cell r="CC11">
-            <v>507</v>
-          </cell>
-          <cell r="CD11">
-            <v>507</v>
-          </cell>
-          <cell r="CE11">
-            <v>507</v>
-          </cell>
-          <cell r="CF11">
-            <v>508</v>
-          </cell>
-          <cell r="CG11">
-            <v>508</v>
-          </cell>
-          <cell r="CH11">
-            <v>508</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="CB12">
-            <v>607</v>
-          </cell>
-          <cell r="CC12">
-            <v>608</v>
-          </cell>
-          <cell r="CD12">
-            <v>608</v>
-          </cell>
-          <cell r="CE12">
-            <v>608</v>
-          </cell>
-          <cell r="CF12">
-            <v>609</v>
-          </cell>
-          <cell r="CG12">
-            <v>609</v>
-          </cell>
-          <cell r="CH12">
-            <v>609</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="CB13">
-            <v>209</v>
-          </cell>
-          <cell r="CC13">
-            <v>209</v>
-          </cell>
-          <cell r="CD13">
-            <v>209</v>
-          </cell>
-          <cell r="CE13">
-            <v>209</v>
-          </cell>
-          <cell r="CF13">
-            <v>209</v>
-          </cell>
-          <cell r="CG13">
-            <v>209</v>
-          </cell>
-          <cell r="CH13">
-            <v>209</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="CB14">
-            <v>150</v>
-          </cell>
-          <cell r="CC14">
-            <v>151</v>
-          </cell>
-          <cell r="CD14">
-            <v>151</v>
-          </cell>
-          <cell r="CE14">
-            <v>151</v>
-          </cell>
-          <cell r="CF14">
-            <v>151</v>
-          </cell>
-          <cell r="CG14">
-            <v>151</v>
-          </cell>
-          <cell r="CH14">
-            <v>151</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="CB15">
-            <v>360</v>
-          </cell>
-          <cell r="CC15">
-            <v>360</v>
-          </cell>
-          <cell r="CD15">
-            <v>360</v>
-          </cell>
-          <cell r="CE15">
-            <v>360</v>
-          </cell>
-          <cell r="CF15">
-            <v>360</v>
-          </cell>
-          <cell r="CG15">
-            <v>361</v>
-          </cell>
-          <cell r="CH15">
-            <v>361</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="CB16">
-            <v>2</v>
-          </cell>
-          <cell r="CC16">
-            <v>2</v>
-          </cell>
-          <cell r="CD16">
-            <v>2</v>
-          </cell>
-          <cell r="CE16">
-            <v>2</v>
-          </cell>
-          <cell r="CF16">
-            <v>2</v>
-          </cell>
-          <cell r="CG16">
-            <v>2</v>
-          </cell>
-          <cell r="CH16">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="CB17">
-            <v>490</v>
-          </cell>
-          <cell r="CC17">
-            <v>490</v>
-          </cell>
-          <cell r="CD17">
-            <v>490</v>
-          </cell>
-          <cell r="CE17">
-            <v>490</v>
-          </cell>
-          <cell r="CF17">
-            <v>490</v>
-          </cell>
-          <cell r="CG17">
-            <v>490</v>
-          </cell>
-          <cell r="CH17">
-            <v>490</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="CB18">
-            <v>1424</v>
-          </cell>
-          <cell r="CC18">
-            <v>1424</v>
-          </cell>
-          <cell r="CD18">
-            <v>1424</v>
-          </cell>
-          <cell r="CE18">
-            <v>1424</v>
-          </cell>
-          <cell r="CF18">
-            <v>1424</v>
-          </cell>
-          <cell r="CG18">
-            <v>1424</v>
-          </cell>
-          <cell r="CH18">
-            <v>1424</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="CB19">
-            <v>310</v>
-          </cell>
-          <cell r="CC19">
-            <v>310</v>
-          </cell>
-          <cell r="CD19">
-            <v>310</v>
-          </cell>
-          <cell r="CE19">
-            <v>310</v>
-          </cell>
-          <cell r="CF19">
-            <v>310</v>
-          </cell>
-          <cell r="CG19">
-            <v>310</v>
-          </cell>
-          <cell r="CH19">
-            <v>310</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="CB20">
-            <v>148</v>
-          </cell>
           <cell r="CC20">
             <v>148</v>
           </cell>
@@ -5161,6 +5267,18 @@
             <v>148</v>
           </cell>
           <cell r="CH20">
+            <v>148</v>
+          </cell>
+          <cell r="CI20">
+            <v>148</v>
+          </cell>
+          <cell r="CJ20">
+            <v>148</v>
+          </cell>
+          <cell r="CK20">
+            <v>148</v>
+          </cell>
+          <cell r="CL20">
             <v>148</v>
           </cell>
         </row>
@@ -5467,10 +5585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19BCC806-AEBF-B341-928D-E17341A7AC6E}">
-  <dimension ref="A1:CH20"/>
+  <dimension ref="A1:CL20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BW1" workbookViewId="0">
-      <selection activeCell="CJ13" sqref="CJ13"/>
+      <selection activeCell="CE9" sqref="CE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5478,7 +5596,7 @@
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5737,8 +5855,20 @@
       <c r="CH1" s="1">
         <v>43982</v>
       </c>
+      <c r="CI1" s="1">
+        <v>43983</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>43984</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>43985</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>43986</v>
+      </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6059,31 +6189,47 @@
         <v>70</v>
       </c>
       <c r="CC2" s="3">
-        <f>[2]Hoja1!CC2-[2]Hoja1!CB2</f>
+        <f>[1]covidfallecidosacumulados!CC2-[1]covidfallecidosacumulados!CB2</f>
         <v>0</v>
       </c>
       <c r="CD2" s="3">
-        <f>[2]Hoja1!CD2-[2]Hoja1!CC2</f>
+        <f>[1]covidfallecidosacumulados!CD2-[1]covidfallecidosacumulados!CC2</f>
         <v>0</v>
       </c>
       <c r="CE2" s="3">
-        <f>[2]Hoja1!CE2-[2]Hoja1!CD2</f>
+        <f>[1]covidfallecidosacumulados!CE2-[1]covidfallecidosacumulados!CD2</f>
         <v>0</v>
       </c>
       <c r="CF2" s="3">
-        <f>[2]Hoja1!CF2-[2]Hoja1!CE2</f>
+        <f>[1]covidfallecidosacumulados!CF2-[1]covidfallecidosacumulados!CE2</f>
         <v>0</v>
       </c>
       <c r="CG2" s="3">
-        <f>[2]Hoja1!CG2-[2]Hoja1!CF2</f>
+        <f>[1]covidfallecidosacumulados!CG2-[1]covidfallecidosacumulados!CF2</f>
         <v>0</v>
       </c>
       <c r="CH2" s="3">
-        <f>[2]Hoja1!CH2-[2]Hoja1!CG2</f>
+        <f>[1]covidfallecidosacumulados!CH2-[1]covidfallecidosacumulados!CG2</f>
+        <v>0</v>
+      </c>
+      <c r="CI2" s="3">
+        <f>[1]covidfallecidosacumulados!CI2-[1]covidfallecidosacumulados!CH2</f>
+        <v>0</v>
+      </c>
+      <c r="CJ2" s="3">
+        <f>[1]covidfallecidosacumulados!CJ2-[1]covidfallecidosacumulados!CI2</f>
+        <v>0</v>
+      </c>
+      <c r="CK2" s="3">
+        <f>[1]covidfallecidosacumulados!CK2-[1]covidfallecidosacumulados!CJ2</f>
+        <v>0</v>
+      </c>
+      <c r="CL2" s="3">
+        <f>[1]covidfallecidosacumulados!CL2-[1]covidfallecidosacumulados!CK2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6404,31 +6550,47 @@
         <v>0</v>
       </c>
       <c r="CC3" s="3">
-        <f>[2]Hoja1!CC3-[2]Hoja1!CB3</f>
+        <f>[1]covidfallecidosacumulados!CC3-[1]covidfallecidosacumulados!CB3</f>
         <v>0</v>
       </c>
       <c r="CD3" s="3">
-        <f>[2]Hoja1!CD3-[2]Hoja1!CC3</f>
+        <f>[1]covidfallecidosacumulados!CD3-[1]covidfallecidosacumulados!CC3</f>
         <v>0</v>
       </c>
       <c r="CE3" s="3">
-        <f>[2]Hoja1!CE3-[2]Hoja1!CD3</f>
+        <f>[1]covidfallecidosacumulados!CE3-[1]covidfallecidosacumulados!CD3</f>
         <v>0</v>
       </c>
       <c r="CF3" s="3">
-        <f>[2]Hoja1!CF3-[2]Hoja1!CE3</f>
+        <f>[1]covidfallecidosacumulados!CF3-[1]covidfallecidosacumulados!CE3</f>
         <v>0</v>
       </c>
       <c r="CG3" s="3">
-        <f>[2]Hoja1!CG3-[2]Hoja1!CF3</f>
+        <f>[1]covidfallecidosacumulados!CG3-[1]covidfallecidosacumulados!CF3</f>
         <v>0</v>
       </c>
       <c r="CH3" s="3">
-        <f>[2]Hoja1!CH3-[2]Hoja1!CG3</f>
+        <f>[1]covidfallecidosacumulados!CH3-[1]covidfallecidosacumulados!CG3</f>
+        <v>0</v>
+      </c>
+      <c r="CI3" s="3">
+        <f>[1]covidfallecidosacumulados!CI3-[1]covidfallecidosacumulados!CH3</f>
+        <v>0</v>
+      </c>
+      <c r="CJ3" s="3">
+        <f>[1]covidfallecidosacumulados!CJ3-[1]covidfallecidosacumulados!CI3</f>
+        <v>0</v>
+      </c>
+      <c r="CK3" s="3">
+        <f>[1]covidfallecidosacumulados!CK3-[1]covidfallecidosacumulados!CJ3</f>
+        <v>0</v>
+      </c>
+      <c r="CL3" s="3">
+        <f>[1]covidfallecidosacumulados!CL3-[1]covidfallecidosacumulados!CK3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -6749,31 +6911,47 @@
         <v>0</v>
       </c>
       <c r="CC4" s="3">
-        <f>[2]Hoja1!CC4-[2]Hoja1!CB4</f>
+        <f>[1]covidfallecidosacumulados!CC4-[1]covidfallecidosacumulados!CB4</f>
         <v>0</v>
       </c>
       <c r="CD4" s="3">
-        <f>[2]Hoja1!CD4-[2]Hoja1!CC4</f>
+        <f>[1]covidfallecidosacumulados!CD4-[1]covidfallecidosacumulados!CC4</f>
         <v>0</v>
       </c>
       <c r="CE4" s="3">
-        <f>[2]Hoja1!CE4-[2]Hoja1!CD4</f>
+        <f>[1]covidfallecidosacumulados!CE4-[1]covidfallecidosacumulados!CD4</f>
         <v>0</v>
       </c>
       <c r="CF4" s="3">
-        <f>[2]Hoja1!CF4-[2]Hoja1!CE4</f>
+        <f>[1]covidfallecidosacumulados!CF4-[1]covidfallecidosacumulados!CE4</f>
         <v>0</v>
       </c>
       <c r="CG4" s="3">
-        <f>[2]Hoja1!CG4-[2]Hoja1!CF4</f>
+        <f>[1]covidfallecidosacumulados!CG4-[1]covidfallecidosacumulados!CF4</f>
         <v>0</v>
       </c>
       <c r="CH4" s="3">
-        <f>[2]Hoja1!CH4-[2]Hoja1!CG4</f>
+        <f>[1]covidfallecidosacumulados!CH4-[1]covidfallecidosacumulados!CG4</f>
+        <v>0</v>
+      </c>
+      <c r="CI4" s="3">
+        <f>[1]covidfallecidosacumulados!CI4-[1]covidfallecidosacumulados!CH4</f>
+        <v>0</v>
+      </c>
+      <c r="CJ4" s="3">
+        <f>[1]covidfallecidosacumulados!CJ4-[1]covidfallecidosacumulados!CI4</f>
+        <v>0</v>
+      </c>
+      <c r="CK4" s="3">
+        <f>[1]covidfallecidosacumulados!CK4-[1]covidfallecidosacumulados!CJ4</f>
+        <v>0</v>
+      </c>
+      <c r="CL4" s="3">
+        <f>[1]covidfallecidosacumulados!CL4-[1]covidfallecidosacumulados!CK4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -7094,31 +7272,47 @@
         <v>9</v>
       </c>
       <c r="CC5" s="3">
-        <f>[2]Hoja1!CC5-[2]Hoja1!CB5</f>
+        <f>[1]covidfallecidosacumulados!CC5-[1]covidfallecidosacumulados!CB5</f>
         <v>0</v>
       </c>
       <c r="CD5" s="3">
-        <f>[2]Hoja1!CD5-[2]Hoja1!CC5</f>
+        <f>[1]covidfallecidosacumulados!CD5-[1]covidfallecidosacumulados!CC5</f>
         <v>0</v>
       </c>
       <c r="CE5" s="3">
-        <f>[2]Hoja1!CE5-[2]Hoja1!CD5</f>
+        <f>[1]covidfallecidosacumulados!CE5-[1]covidfallecidosacumulados!CD5</f>
         <v>0</v>
       </c>
       <c r="CF5" s="3">
-        <f>[2]Hoja1!CF5-[2]Hoja1!CE5</f>
+        <f>[1]covidfallecidosacumulados!CF5-[1]covidfallecidosacumulados!CE5</f>
         <v>1</v>
       </c>
       <c r="CG5" s="3">
-        <f>[2]Hoja1!CG5-[2]Hoja1!CF5</f>
+        <f>[1]covidfallecidosacumulados!CG5-[1]covidfallecidosacumulados!CF5</f>
         <v>1</v>
       </c>
       <c r="CH5" s="3">
-        <f>[2]Hoja1!CH5-[2]Hoja1!CG5</f>
+        <f>[1]covidfallecidosacumulados!CH5-[1]covidfallecidosacumulados!CG5</f>
+        <v>0</v>
+      </c>
+      <c r="CI5" s="3">
+        <f>[1]covidfallecidosacumulados!CI5-[1]covidfallecidosacumulados!CH5</f>
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="3">
+        <f>[1]covidfallecidosacumulados!CJ5-[1]covidfallecidosacumulados!CI5</f>
+        <v>1</v>
+      </c>
+      <c r="CK5" s="3">
+        <f>[1]covidfallecidosacumulados!CK5-[1]covidfallecidosacumulados!CJ5</f>
+        <v>3</v>
+      </c>
+      <c r="CL5" s="3">
+        <f>[1]covidfallecidosacumulados!CL5-[1]covidfallecidosacumulados!CK5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -7439,31 +7633,47 @@
         <v>157</v>
       </c>
       <c r="CC6" s="3">
-        <f>[2]Hoja1!CC6-[2]Hoja1!CB6</f>
+        <f>[1]covidfallecidosacumulados!CC6-[1]covidfallecidosacumulados!CB6</f>
         <v>0</v>
       </c>
       <c r="CD6" s="3">
-        <f>[2]Hoja1!CD6-[2]Hoja1!CC6</f>
+        <f>[1]covidfallecidosacumulados!CD6-[1]covidfallecidosacumulados!CC6</f>
         <v>0</v>
       </c>
       <c r="CE6" s="3">
-        <f>[2]Hoja1!CE6-[2]Hoja1!CD6</f>
+        <f>[1]covidfallecidosacumulados!CE6-[1]covidfallecidosacumulados!CD6</f>
         <v>0</v>
       </c>
       <c r="CF6" s="3">
-        <f>[2]Hoja1!CF6-[2]Hoja1!CE6</f>
+        <f>[1]covidfallecidosacumulados!CF6-[1]covidfallecidosacumulados!CE6</f>
         <v>0</v>
       </c>
       <c r="CG6" s="3">
-        <f>[2]Hoja1!CG6-[2]Hoja1!CF6</f>
+        <f>[1]covidfallecidosacumulados!CG6-[1]covidfallecidosacumulados!CF6</f>
         <v>0</v>
       </c>
       <c r="CH6" s="3">
-        <f>[2]Hoja1!CH6-[2]Hoja1!CG6</f>
+        <f>[1]covidfallecidosacumulados!CH6-[1]covidfallecidosacumulados!CG6</f>
+        <v>0</v>
+      </c>
+      <c r="CI6" s="3">
+        <f>[1]covidfallecidosacumulados!CI6-[1]covidfallecidosacumulados!CH6</f>
+        <v>0</v>
+      </c>
+      <c r="CJ6" s="3">
+        <f>[1]covidfallecidosacumulados!CJ6-[1]covidfallecidosacumulados!CI6</f>
+        <v>0</v>
+      </c>
+      <c r="CK6" s="3">
+        <f>[1]covidfallecidosacumulados!CK6-[1]covidfallecidosacumulados!CJ6</f>
+        <v>0</v>
+      </c>
+      <c r="CL6" s="3">
+        <f>[1]covidfallecidosacumulados!CL6-[1]covidfallecidosacumulados!CK6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -7784,31 +7994,47 @@
         <v>8</v>
       </c>
       <c r="CC7" s="3">
-        <f>[2]Hoja1!CC7-[2]Hoja1!CB7</f>
+        <f>[1]covidfallecidosacumulados!CC7-[1]covidfallecidosacumulados!CB7</f>
         <v>0</v>
       </c>
       <c r="CD7" s="3">
-        <f>[2]Hoja1!CD7-[2]Hoja1!CC7</f>
+        <f>[1]covidfallecidosacumulados!CD7-[1]covidfallecidosacumulados!CC7</f>
         <v>1</v>
       </c>
       <c r="CE7" s="3">
-        <f>[2]Hoja1!CE7-[2]Hoja1!CD7</f>
+        <f>[1]covidfallecidosacumulados!CE7-[1]covidfallecidosacumulados!CD7</f>
         <v>0</v>
       </c>
       <c r="CF7" s="3">
-        <f>[2]Hoja1!CF7-[2]Hoja1!CE7</f>
+        <f>[1]covidfallecidosacumulados!CF7-[1]covidfallecidosacumulados!CE7</f>
         <v>3</v>
       </c>
       <c r="CG7" s="3">
-        <f>[2]Hoja1!CG7-[2]Hoja1!CF7</f>
+        <f>[1]covidfallecidosacumulados!CG7-[1]covidfallecidosacumulados!CF7</f>
         <v>0</v>
       </c>
       <c r="CH7" s="3">
-        <f>[2]Hoja1!CH7-[2]Hoja1!CG7</f>
+        <f>[1]covidfallecidosacumulados!CH7-[1]covidfallecidosacumulados!CG7</f>
+        <v>0</v>
+      </c>
+      <c r="CI7" s="3">
+        <f>[1]covidfallecidosacumulados!CI7-[1]covidfallecidosacumulados!CH7</f>
+        <v>0</v>
+      </c>
+      <c r="CJ7" s="3">
+        <f>[1]covidfallecidosacumulados!CJ7-[1]covidfallecidosacumulados!CI7</f>
+        <v>0</v>
+      </c>
+      <c r="CK7" s="3">
+        <f>[1]covidfallecidosacumulados!CK7-[1]covidfallecidosacumulados!CJ7</f>
+        <v>0</v>
+      </c>
+      <c r="CL7" s="3">
+        <f>[1]covidfallecidosacumulados!CL7-[1]covidfallecidosacumulados!CK7</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -8129,31 +8355,47 @@
         <v>1</v>
       </c>
       <c r="CC8" s="3">
-        <f>[2]Hoja1!CC8-[2]Hoja1!CB8</f>
+        <f>[1]covidfallecidosacumulados!CC8-[1]covidfallecidosacumulados!CB8</f>
         <v>-1</v>
       </c>
       <c r="CD8" s="3">
-        <f>[2]Hoja1!CD8-[2]Hoja1!CC8</f>
+        <f>[1]covidfallecidosacumulados!CD8-[1]covidfallecidosacumulados!CC8</f>
         <v>0</v>
       </c>
       <c r="CE8" s="3">
-        <f>[2]Hoja1!CE8-[2]Hoja1!CD8</f>
+        <f>[1]covidfallecidosacumulados!CE8-[1]covidfallecidosacumulados!CD8</f>
         <v>0</v>
       </c>
       <c r="CF8" s="3">
-        <f>[2]Hoja1!CF8-[2]Hoja1!CE8</f>
+        <f>[1]covidfallecidosacumulados!CF8-[1]covidfallecidosacumulados!CE8</f>
         <v>0</v>
       </c>
       <c r="CG8" s="3">
-        <f>[2]Hoja1!CG8-[2]Hoja1!CF8</f>
+        <f>[1]covidfallecidosacumulados!CG8-[1]covidfallecidosacumulados!CF8</f>
         <v>0</v>
       </c>
       <c r="CH8" s="3">
-        <f>[2]Hoja1!CH8-[2]Hoja1!CG8</f>
+        <f>[1]covidfallecidosacumulados!CH8-[1]covidfallecidosacumulados!CG8</f>
+        <v>0</v>
+      </c>
+      <c r="CI8" s="3">
+        <f>[1]covidfallecidosacumulados!CI8-[1]covidfallecidosacumulados!CH8</f>
+        <v>0</v>
+      </c>
+      <c r="CJ8" s="3">
+        <f>[1]covidfallecidosacumulados!CJ8-[1]covidfallecidosacumulados!CI8</f>
+        <v>0</v>
+      </c>
+      <c r="CK8" s="3">
+        <f>[1]covidfallecidosacumulados!CK8-[1]covidfallecidosacumulados!CJ8</f>
+        <v>0</v>
+      </c>
+      <c r="CL8" s="3">
+        <f>[1]covidfallecidosacumulados!CL8-[1]covidfallecidosacumulados!CK8</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -8474,31 +8716,47 @@
         <v>5</v>
       </c>
       <c r="CC9" s="3">
-        <f>[2]Hoja1!CC9-[2]Hoja1!CB9</f>
+        <f>[1]covidfallecidosacumulados!CC9-[1]covidfallecidosacumulados!CB9</f>
         <v>0</v>
       </c>
       <c r="CD9" s="3">
-        <f>[2]Hoja1!CD9-[2]Hoja1!CC9</f>
+        <f>[1]covidfallecidosacumulados!CD9-[1]covidfallecidosacumulados!CC9</f>
         <v>0</v>
       </c>
       <c r="CE9" s="3">
-        <f>[2]Hoja1!CE9-[2]Hoja1!CD9</f>
+        <f>[1]covidfallecidosacumulados!CE9-[1]covidfallecidosacumulados!CD9</f>
         <v>0</v>
       </c>
       <c r="CF9" s="3">
-        <f>[2]Hoja1!CF9-[2]Hoja1!CE9</f>
+        <f>[1]covidfallecidosacumulados!CF9-[1]covidfallecidosacumulados!CE9</f>
         <v>0</v>
       </c>
       <c r="CG9" s="3">
-        <f>[2]Hoja1!CG9-[2]Hoja1!CF9</f>
+        <f>[1]covidfallecidosacumulados!CG9-[1]covidfallecidosacumulados!CF9</f>
         <v>0</v>
       </c>
       <c r="CH9" s="3">
-        <f>[2]Hoja1!CH9-[2]Hoja1!CG9</f>
+        <f>[1]covidfallecidosacumulados!CH9-[1]covidfallecidosacumulados!CG9</f>
+        <v>0</v>
+      </c>
+      <c r="CI9" s="3">
+        <f>[1]covidfallecidosacumulados!CI9-[1]covidfallecidosacumulados!CH9</f>
+        <v>0</v>
+      </c>
+      <c r="CJ9" s="3">
+        <f>[1]covidfallecidosacumulados!CJ9-[1]covidfallecidosacumulados!CI9</f>
+        <v>0</v>
+      </c>
+      <c r="CK9" s="3">
+        <f>[1]covidfallecidosacumulados!CK9-[1]covidfallecidosacumulados!CJ9</f>
+        <v>0</v>
+      </c>
+      <c r="CL9" s="3">
+        <f>[1]covidfallecidosacumulados!CL9-[1]covidfallecidosacumulados!CK9</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -8819,31 +9077,47 @@
         <v>1</v>
       </c>
       <c r="CC10" s="3">
-        <f>[2]Hoja1!CC10-[2]Hoja1!CB10</f>
+        <f>[1]covidfallecidosacumulados!CC10-[1]covidfallecidosacumulados!CB10</f>
         <v>0</v>
       </c>
       <c r="CD10" s="3">
-        <f>[2]Hoja1!CD10-[2]Hoja1!CC10</f>
+        <f>[1]covidfallecidosacumulados!CD10-[1]covidfallecidosacumulados!CC10</f>
         <v>0</v>
       </c>
       <c r="CE10" s="3">
-        <f>[2]Hoja1!CE10-[2]Hoja1!CD10</f>
+        <f>[1]covidfallecidosacumulados!CE10-[1]covidfallecidosacumulados!CD10</f>
         <v>2</v>
       </c>
       <c r="CF10" s="3">
-        <f>[2]Hoja1!CF10-[2]Hoja1!CE10</f>
+        <f>[1]covidfallecidosacumulados!CF10-[1]covidfallecidosacumulados!CE10</f>
         <v>-2</v>
       </c>
       <c r="CG10" s="3">
-        <f>[2]Hoja1!CG10-[2]Hoja1!CF10</f>
+        <f>[1]covidfallecidosacumulados!CG10-[1]covidfallecidosacumulados!CF10</f>
         <v>0</v>
       </c>
       <c r="CH10" s="3">
-        <f>[2]Hoja1!CH10-[2]Hoja1!CG10</f>
+        <f>[1]covidfallecidosacumulados!CH10-[1]covidfallecidosacumulados!CG10</f>
+        <v>0</v>
+      </c>
+      <c r="CI10" s="3">
+        <f>[1]covidfallecidosacumulados!CI10-[1]covidfallecidosacumulados!CH10</f>
+        <v>0</v>
+      </c>
+      <c r="CJ10" s="3">
+        <f>[1]covidfallecidosacumulados!CJ10-[1]covidfallecidosacumulados!CI10</f>
+        <v>0</v>
+      </c>
+      <c r="CK10" s="3">
+        <f>[1]covidfallecidosacumulados!CK10-[1]covidfallecidosacumulados!CJ10</f>
+        <v>0</v>
+      </c>
+      <c r="CL10" s="3">
+        <f>[1]covidfallecidosacumulados!CL10-[1]covidfallecidosacumulados!CK10</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -9164,31 +9438,47 @@
         <v>1</v>
       </c>
       <c r="CC11" s="3">
-        <f>[2]Hoja1!CC11-[2]Hoja1!CB11</f>
+        <f>[1]covidfallecidosacumulados!CC11-[1]covidfallecidosacumulados!CB11</f>
         <v>0</v>
       </c>
       <c r="CD11" s="3">
-        <f>[2]Hoja1!CD11-[2]Hoja1!CC11</f>
+        <f>[1]covidfallecidosacumulados!CD11-[1]covidfallecidosacumulados!CC11</f>
         <v>0</v>
       </c>
       <c r="CE11" s="3">
-        <f>[2]Hoja1!CE11-[2]Hoja1!CD11</f>
+        <f>[1]covidfallecidosacumulados!CE11-[1]covidfallecidosacumulados!CD11</f>
         <v>0</v>
       </c>
       <c r="CF11" s="3">
-        <f>[2]Hoja1!CF11-[2]Hoja1!CE11</f>
+        <f>[1]covidfallecidosacumulados!CF11-[1]covidfallecidosacumulados!CE11</f>
         <v>1</v>
       </c>
       <c r="CG11" s="3">
-        <f>[2]Hoja1!CG11-[2]Hoja1!CF11</f>
+        <f>[1]covidfallecidosacumulados!CG11-[1]covidfallecidosacumulados!CF11</f>
         <v>0</v>
       </c>
       <c r="CH11" s="3">
-        <f>[2]Hoja1!CH11-[2]Hoja1!CG11</f>
+        <f>[1]covidfallecidosacumulados!CH11-[1]covidfallecidosacumulados!CG11</f>
+        <v>0</v>
+      </c>
+      <c r="CI11" s="3">
+        <f>[1]covidfallecidosacumulados!CI11-[1]covidfallecidosacumulados!CH11</f>
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="3">
+        <f>[1]covidfallecidosacumulados!CJ11-[1]covidfallecidosacumulados!CI11</f>
+        <v>0</v>
+      </c>
+      <c r="CK11" s="3">
+        <f>[1]covidfallecidosacumulados!CK11-[1]covidfallecidosacumulados!CJ11</f>
+        <v>0</v>
+      </c>
+      <c r="CL11" s="3">
+        <f>[1]covidfallecidosacumulados!CL11-[1]covidfallecidosacumulados!CK11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -9509,31 +9799,47 @@
         <v>0</v>
       </c>
       <c r="CC12" s="3">
-        <f>[2]Hoja1!CC12-[2]Hoja1!CB12</f>
+        <f>[1]covidfallecidosacumulados!CC12-[1]covidfallecidosacumulados!CB12</f>
         <v>1</v>
       </c>
       <c r="CD12" s="3">
-        <f>[2]Hoja1!CD12-[2]Hoja1!CC12</f>
+        <f>[1]covidfallecidosacumulados!CD12-[1]covidfallecidosacumulados!CC12</f>
         <v>0</v>
       </c>
       <c r="CE12" s="3">
-        <f>[2]Hoja1!CE12-[2]Hoja1!CD12</f>
+        <f>[1]covidfallecidosacumulados!CE12-[1]covidfallecidosacumulados!CD12</f>
         <v>0</v>
       </c>
       <c r="CF12" s="3">
-        <f>[2]Hoja1!CF12-[2]Hoja1!CE12</f>
+        <f>[1]covidfallecidosacumulados!CF12-[1]covidfallecidosacumulados!CE12</f>
         <v>1</v>
       </c>
       <c r="CG12" s="3">
-        <f>[2]Hoja1!CG12-[2]Hoja1!CF12</f>
+        <f>[1]covidfallecidosacumulados!CG12-[1]covidfallecidosacumulados!CF12</f>
         <v>0</v>
       </c>
       <c r="CH12" s="3">
-        <f>[2]Hoja1!CH12-[2]Hoja1!CG12</f>
+        <f>[1]covidfallecidosacumulados!CH12-[1]covidfallecidosacumulados!CG12</f>
+        <v>0</v>
+      </c>
+      <c r="CI12" s="3">
+        <f>[1]covidfallecidosacumulados!CI12-[1]covidfallecidosacumulados!CH12</f>
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="3">
+        <f>[1]covidfallecidosacumulados!CJ12-[1]covidfallecidosacumulados!CI12</f>
+        <v>0</v>
+      </c>
+      <c r="CK12" s="3">
+        <f>[1]covidfallecidosacumulados!CK12-[1]covidfallecidosacumulados!CJ12</f>
+        <v>0</v>
+      </c>
+      <c r="CL12" s="3">
+        <f>[1]covidfallecidosacumulados!CL12-[1]covidfallecidosacumulados!CK12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -9854,31 +10160,47 @@
         <v>-2</v>
       </c>
       <c r="CC13" s="3">
-        <f>[2]Hoja1!CC13-[2]Hoja1!CB13</f>
+        <f>[1]covidfallecidosacumulados!CC13-[1]covidfallecidosacumulados!CB13</f>
         <v>0</v>
       </c>
       <c r="CD13" s="3">
-        <f>[2]Hoja1!CD13-[2]Hoja1!CC13</f>
+        <f>[1]covidfallecidosacumulados!CD13-[1]covidfallecidosacumulados!CC13</f>
         <v>0</v>
       </c>
       <c r="CE13" s="3">
-        <f>[2]Hoja1!CE13-[2]Hoja1!CD13</f>
+        <f>[1]covidfallecidosacumulados!CE13-[1]covidfallecidosacumulados!CD13</f>
         <v>0</v>
       </c>
       <c r="CF13" s="3">
-        <f>[2]Hoja1!CF13-[2]Hoja1!CE13</f>
+        <f>[1]covidfallecidosacumulados!CF13-[1]covidfallecidosacumulados!CE13</f>
         <v>0</v>
       </c>
       <c r="CG13" s="3">
-        <f>[2]Hoja1!CG13-[2]Hoja1!CF13</f>
+        <f>[1]covidfallecidosacumulados!CG13-[1]covidfallecidosacumulados!CF13</f>
         <v>0</v>
       </c>
       <c r="CH13" s="3">
-        <f>[2]Hoja1!CH13-[2]Hoja1!CG13</f>
+        <f>[1]covidfallecidosacumulados!CH13-[1]covidfallecidosacumulados!CG13</f>
+        <v>0</v>
+      </c>
+      <c r="CI13" s="3">
+        <f>[1]covidfallecidosacumulados!CI13-[1]covidfallecidosacumulados!CH13</f>
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="3">
+        <f>[1]covidfallecidosacumulados!CJ13-[1]covidfallecidosacumulados!CI13</f>
+        <v>0</v>
+      </c>
+      <c r="CK13" s="3">
+        <f>[1]covidfallecidosacumulados!CK13-[1]covidfallecidosacumulados!CJ13</f>
+        <v>0</v>
+      </c>
+      <c r="CL13" s="3">
+        <f>[1]covidfallecidosacumulados!CL13-[1]covidfallecidosacumulados!CK13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -10199,31 +10521,47 @@
         <v>0</v>
       </c>
       <c r="CC14" s="3">
-        <f>[2]Hoja1!CC14-[2]Hoja1!CB14</f>
+        <f>[1]covidfallecidosacumulados!CC14-[1]covidfallecidosacumulados!CB14</f>
         <v>1</v>
       </c>
       <c r="CD14" s="3">
-        <f>[2]Hoja1!CD14-[2]Hoja1!CC14</f>
+        <f>[1]covidfallecidosacumulados!CD14-[1]covidfallecidosacumulados!CC14</f>
         <v>0</v>
       </c>
       <c r="CE14" s="3">
-        <f>[2]Hoja1!CE14-[2]Hoja1!CD14</f>
+        <f>[1]covidfallecidosacumulados!CE14-[1]covidfallecidosacumulados!CD14</f>
         <v>0</v>
       </c>
       <c r="CF14" s="3">
-        <f>[2]Hoja1!CF14-[2]Hoja1!CE14</f>
+        <f>[1]covidfallecidosacumulados!CF14-[1]covidfallecidosacumulados!CE14</f>
         <v>0</v>
       </c>
       <c r="CG14" s="3">
-        <f>[2]Hoja1!CG14-[2]Hoja1!CF14</f>
+        <f>[1]covidfallecidosacumulados!CG14-[1]covidfallecidosacumulados!CF14</f>
         <v>0</v>
       </c>
       <c r="CH14" s="3">
-        <f>[2]Hoja1!CH14-[2]Hoja1!CG14</f>
+        <f>[1]covidfallecidosacumulados!CH14-[1]covidfallecidosacumulados!CG14</f>
+        <v>0</v>
+      </c>
+      <c r="CI14" s="3">
+        <f>[1]covidfallecidosacumulados!CI14-[1]covidfallecidosacumulados!CH14</f>
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="3">
+        <f>[1]covidfallecidosacumulados!CJ14-[1]covidfallecidosacumulados!CI14</f>
+        <v>0</v>
+      </c>
+      <c r="CK14" s="3">
+        <f>[1]covidfallecidosacumulados!CK14-[1]covidfallecidosacumulados!CJ14</f>
+        <v>0</v>
+      </c>
+      <c r="CL14" s="3">
+        <f>[1]covidfallecidosacumulados!CL14-[1]covidfallecidosacumulados!CK14</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -10544,31 +10882,47 @@
         <v>2</v>
       </c>
       <c r="CC15" s="3">
-        <f>[2]Hoja1!CC15-[2]Hoja1!CB15</f>
+        <f>[1]covidfallecidosacumulados!CC15-[1]covidfallecidosacumulados!CB15</f>
         <v>0</v>
       </c>
       <c r="CD15" s="3">
-        <f>[2]Hoja1!CD15-[2]Hoja1!CC15</f>
+        <f>[1]covidfallecidosacumulados!CD15-[1]covidfallecidosacumulados!CC15</f>
         <v>0</v>
       </c>
       <c r="CE15" s="3">
-        <f>[2]Hoja1!CE15-[2]Hoja1!CD15</f>
+        <f>[1]covidfallecidosacumulados!CE15-[1]covidfallecidosacumulados!CD15</f>
         <v>0</v>
       </c>
       <c r="CF15" s="3">
-        <f>[2]Hoja1!CF15-[2]Hoja1!CE15</f>
+        <f>[1]covidfallecidosacumulados!CF15-[1]covidfallecidosacumulados!CE15</f>
         <v>0</v>
       </c>
       <c r="CG15" s="3">
-        <f>[2]Hoja1!CG15-[2]Hoja1!CF15</f>
+        <f>[1]covidfallecidosacumulados!CG15-[1]covidfallecidosacumulados!CF15</f>
         <v>1</v>
       </c>
       <c r="CH15" s="3">
-        <f>[2]Hoja1!CH15-[2]Hoja1!CG15</f>
+        <f>[1]covidfallecidosacumulados!CH15-[1]covidfallecidosacumulados!CG15</f>
+        <v>0</v>
+      </c>
+      <c r="CI15" s="3">
+        <f>[1]covidfallecidosacumulados!CI15-[1]covidfallecidosacumulados!CH15</f>
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="3">
+        <f>[1]covidfallecidosacumulados!CJ15-[1]covidfallecidosacumulados!CI15</f>
+        <v>0</v>
+      </c>
+      <c r="CK15" s="3">
+        <f>[1]covidfallecidosacumulados!CK15-[1]covidfallecidosacumulados!CJ15</f>
+        <v>1</v>
+      </c>
+      <c r="CL15" s="3">
+        <f>[1]covidfallecidosacumulados!CL15-[1]covidfallecidosacumulados!CK15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -10889,31 +11243,47 @@
         <v>0</v>
       </c>
       <c r="CC16" s="3">
-        <f>[2]Hoja1!CC16-[2]Hoja1!CB16</f>
+        <f>[1]covidfallecidosacumulados!CC16-[1]covidfallecidosacumulados!CB16</f>
         <v>0</v>
       </c>
       <c r="CD16" s="3">
-        <f>[2]Hoja1!CD16-[2]Hoja1!CC16</f>
+        <f>[1]covidfallecidosacumulados!CD16-[1]covidfallecidosacumulados!CC16</f>
         <v>0</v>
       </c>
       <c r="CE16" s="3">
-        <f>[2]Hoja1!CE16-[2]Hoja1!CD16</f>
+        <f>[1]covidfallecidosacumulados!CE16-[1]covidfallecidosacumulados!CD16</f>
         <v>0</v>
       </c>
       <c r="CF16" s="3">
-        <f>[2]Hoja1!CF16-[2]Hoja1!CE16</f>
+        <f>[1]covidfallecidosacumulados!CF16-[1]covidfallecidosacumulados!CE16</f>
         <v>0</v>
       </c>
       <c r="CG16" s="3">
-        <f>[2]Hoja1!CG16-[2]Hoja1!CF16</f>
+        <f>[1]covidfallecidosacumulados!CG16-[1]covidfallecidosacumulados!CF16</f>
         <v>0</v>
       </c>
       <c r="CH16" s="3">
-        <f>[2]Hoja1!CH16-[2]Hoja1!CG16</f>
+        <f>[1]covidfallecidosacumulados!CH16-[1]covidfallecidosacumulados!CG16</f>
+        <v>0</v>
+      </c>
+      <c r="CI16" s="3">
+        <f>[1]covidfallecidosacumulados!CI16-[1]covidfallecidosacumulados!CH16</f>
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="3">
+        <f>[1]covidfallecidosacumulados!CJ16-[1]covidfallecidosacumulados!CI16</f>
+        <v>0</v>
+      </c>
+      <c r="CK16" s="3">
+        <f>[1]covidfallecidosacumulados!CK16-[1]covidfallecidosacumulados!CJ16</f>
+        <v>0</v>
+      </c>
+      <c r="CL16" s="3">
+        <f>[1]covidfallecidosacumulados!CL16-[1]covidfallecidosacumulados!CK16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -11234,31 +11604,47 @@
         <v>0</v>
       </c>
       <c r="CC17" s="3">
-        <f>[2]Hoja1!CC17-[2]Hoja1!CB17</f>
+        <f>[1]covidfallecidosacumulados!CC17-[1]covidfallecidosacumulados!CB17</f>
         <v>0</v>
       </c>
       <c r="CD17" s="3">
-        <f>[2]Hoja1!CD17-[2]Hoja1!CC17</f>
+        <f>[1]covidfallecidosacumulados!CD17-[1]covidfallecidosacumulados!CC17</f>
         <v>0</v>
       </c>
       <c r="CE17" s="3">
-        <f>[2]Hoja1!CE17-[2]Hoja1!CD17</f>
+        <f>[1]covidfallecidosacumulados!CE17-[1]covidfallecidosacumulados!CD17</f>
         <v>0</v>
       </c>
       <c r="CF17" s="3">
-        <f>[2]Hoja1!CF17-[2]Hoja1!CE17</f>
+        <f>[1]covidfallecidosacumulados!CF17-[1]covidfallecidosacumulados!CE17</f>
         <v>0</v>
       </c>
       <c r="CG17" s="3">
-        <f>[2]Hoja1!CG17-[2]Hoja1!CF17</f>
+        <f>[1]covidfallecidosacumulados!CG17-[1]covidfallecidosacumulados!CF17</f>
         <v>0</v>
       </c>
       <c r="CH17" s="3">
-        <f>[2]Hoja1!CH17-[2]Hoja1!CG17</f>
+        <f>[1]covidfallecidosacumulados!CH17-[1]covidfallecidosacumulados!CG17</f>
+        <v>0</v>
+      </c>
+      <c r="CI17" s="3">
+        <f>[1]covidfallecidosacumulados!CI17-[1]covidfallecidosacumulados!CH17</f>
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="3">
+        <f>[1]covidfallecidosacumulados!CJ17-[1]covidfallecidosacumulados!CI17</f>
+        <v>0</v>
+      </c>
+      <c r="CK17" s="3">
+        <f>[1]covidfallecidosacumulados!CK17-[1]covidfallecidosacumulados!CJ17</f>
+        <v>0</v>
+      </c>
+      <c r="CL17" s="3">
+        <f>[1]covidfallecidosacumulados!CL17-[1]covidfallecidosacumulados!CK17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -11579,31 +11965,47 @@
         <v>0</v>
       </c>
       <c r="CC18" s="3">
-        <f>[2]Hoja1!CC18-[2]Hoja1!CB18</f>
+        <f>[1]covidfallecidosacumulados!CC18-[1]covidfallecidosacumulados!CB18</f>
         <v>0</v>
       </c>
       <c r="CD18" s="3">
-        <f>[2]Hoja1!CD18-[2]Hoja1!CC18</f>
+        <f>[1]covidfallecidosacumulados!CD18-[1]covidfallecidosacumulados!CC18</f>
         <v>0</v>
       </c>
       <c r="CE18" s="3">
-        <f>[2]Hoja1!CE18-[2]Hoja1!CD18</f>
+        <f>[1]covidfallecidosacumulados!CE18-[1]covidfallecidosacumulados!CD18</f>
         <v>0</v>
       </c>
       <c r="CF18" s="3">
-        <f>[2]Hoja1!CF18-[2]Hoja1!CE18</f>
+        <f>[1]covidfallecidosacumulados!CF18-[1]covidfallecidosacumulados!CE18</f>
         <v>0</v>
       </c>
       <c r="CG18" s="3">
-        <f>[2]Hoja1!CG18-[2]Hoja1!CF18</f>
+        <f>[1]covidfallecidosacumulados!CG18-[1]covidfallecidosacumulados!CF18</f>
         <v>0</v>
       </c>
       <c r="CH18" s="3">
-        <f>[2]Hoja1!CH18-[2]Hoja1!CG18</f>
+        <f>[1]covidfallecidosacumulados!CH18-[1]covidfallecidosacumulados!CG18</f>
+        <v>0</v>
+      </c>
+      <c r="CI18" s="3">
+        <f>[1]covidfallecidosacumulados!CI18-[1]covidfallecidosacumulados!CH18</f>
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="3">
+        <f>[1]covidfallecidosacumulados!CJ18-[1]covidfallecidosacumulados!CI18</f>
+        <v>0</v>
+      </c>
+      <c r="CK18" s="3">
+        <f>[1]covidfallecidosacumulados!CK18-[1]covidfallecidosacumulados!CJ18</f>
+        <v>0</v>
+      </c>
+      <c r="CL18" s="3">
+        <f>[1]covidfallecidosacumulados!CL18-[1]covidfallecidosacumulados!CK18</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -11924,31 +12326,47 @@
         <v>22</v>
       </c>
       <c r="CC19" s="3">
-        <f>[2]Hoja1!CC19-[2]Hoja1!CB19</f>
+        <f>[1]covidfallecidosacumulados!CC19-[1]covidfallecidosacumulados!CB19</f>
         <v>0</v>
       </c>
       <c r="CD19" s="3">
-        <f>[2]Hoja1!CD19-[2]Hoja1!CC19</f>
+        <f>[1]covidfallecidosacumulados!CD19-[1]covidfallecidosacumulados!CC19</f>
         <v>0</v>
       </c>
       <c r="CE19" s="3">
-        <f>[2]Hoja1!CE19-[2]Hoja1!CD19</f>
+        <f>[1]covidfallecidosacumulados!CE19-[1]covidfallecidosacumulados!CD19</f>
         <v>0</v>
       </c>
       <c r="CF19" s="3">
-        <f>[2]Hoja1!CF19-[2]Hoja1!CE19</f>
+        <f>[1]covidfallecidosacumulados!CF19-[1]covidfallecidosacumulados!CE19</f>
         <v>0</v>
       </c>
       <c r="CG19" s="3">
-        <f>[2]Hoja1!CG19-[2]Hoja1!CF19</f>
+        <f>[1]covidfallecidosacumulados!CG19-[1]covidfallecidosacumulados!CF19</f>
         <v>0</v>
       </c>
       <c r="CH19" s="3">
-        <f>[2]Hoja1!CH19-[2]Hoja1!CG19</f>
-        <v>0</v>
+        <f>[1]covidfallecidosacumulados!CH19-[1]covidfallecidosacumulados!CG19</f>
+        <v>0</v>
+      </c>
+      <c r="CI19" s="3">
+        <f>[1]covidfallecidosacumulados!CI19-[1]covidfallecidosacumulados!CH19</f>
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="3">
+        <f>[1]covidfallecidosacumulados!CJ19-[1]covidfallecidosacumulados!CI19</f>
+        <v>0</v>
+      </c>
+      <c r="CK19" s="3">
+        <f>[1]covidfallecidosacumulados!CK19-[1]covidfallecidosacumulados!CJ19</f>
+        <v>1</v>
+      </c>
+      <c r="CL19" s="3">
+        <f>[1]covidfallecidosacumulados!CL19-[1]covidfallecidosacumulados!CK19</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:90" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -12269,27 +12687,43 @@
         <v>9</v>
       </c>
       <c r="CC20" s="3">
-        <f>[2]Hoja1!CC20-[2]Hoja1!CB20</f>
+        <f>[1]covidfallecidosacumulados!CC20-[1]covidfallecidosacumulados!CB20</f>
         <v>0</v>
       </c>
       <c r="CD20" s="3">
-        <f>[2]Hoja1!CD20-[2]Hoja1!CC20</f>
+        <f>[1]covidfallecidosacumulados!CD20-[1]covidfallecidosacumulados!CC20</f>
         <v>0</v>
       </c>
       <c r="CE20" s="3">
-        <f>[2]Hoja1!CE20-[2]Hoja1!CD20</f>
+        <f>[1]covidfallecidosacumulados!CE20-[1]covidfallecidosacumulados!CD20</f>
         <v>0</v>
       </c>
       <c r="CF20" s="3">
-        <f>[2]Hoja1!CF20-[2]Hoja1!CE20</f>
+        <f>[1]covidfallecidosacumulados!CF20-[1]covidfallecidosacumulados!CE20</f>
         <v>0</v>
       </c>
       <c r="CG20" s="3">
-        <f>[2]Hoja1!CG20-[2]Hoja1!CF20</f>
+        <f>[1]covidfallecidosacumulados!CG20-[1]covidfallecidosacumulados!CF20</f>
         <v>0</v>
       </c>
       <c r="CH20" s="3">
-        <f>[2]Hoja1!CH20-[2]Hoja1!CG20</f>
+        <f>[1]covidfallecidosacumulados!CH20-[1]covidfallecidosacumulados!CG20</f>
+        <v>0</v>
+      </c>
+      <c r="CI20" s="3">
+        <f>[1]covidfallecidosacumulados!CI20-[1]covidfallecidosacumulados!CH20</f>
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="3">
+        <f>[1]covidfallecidosacumulados!CJ20-[1]covidfallecidosacumulados!CI20</f>
+        <v>0</v>
+      </c>
+      <c r="CK20" s="3">
+        <f>[1]covidfallecidosacumulados!CK20-[1]covidfallecidosacumulados!CJ20</f>
+        <v>0</v>
+      </c>
+      <c r="CL20" s="3">
+        <f>[1]covidfallecidosacumulados!CL20-[1]covidfallecidosacumulados!CK20</f>
         <v>0</v>
       </c>
     </row>
